--- a/data-raw/generators/1990-2000/statuscode_dictionary.xlsx
+++ b/data-raw/generators/1990-2000/statuscode_dictionary.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="1990-1996" sheetId="1" r:id="rId1"/>
-    <sheet name="1997" sheetId="2" r:id="rId2"/>
-    <sheet name="1998-2000" sheetId="3" r:id="rId3"/>
+    <sheet name="master" sheetId="4" r:id="rId1"/>
+    <sheet name="documentation" sheetId="1" r:id="rId2"/>
+    <sheet name="1990-1994" sheetId="6" r:id="rId3"/>
+    <sheet name="1995-2000" sheetId="7" r:id="rId4"/>
+    <sheet name="1990-2000" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">master!$A$1:$B$31</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="118">
   <si>
     <t>code1</t>
   </si>
@@ -290,13 +295,107 @@
   </si>
   <si>
     <t>Cancelled the Project</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>environmental, site or legal challenges</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>out of service but expected to return this year</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>cold shutdown</t>
+  </si>
+  <si>
+    <t>from prev work</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>97-00</t>
+  </si>
+  <si>
+    <t>90-96 (replaced with U/V)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(see master)</t>
+  </si>
+  <si>
+    <t>n_avg</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>(prev. status 2)</t>
+  </si>
+  <si>
+    <t>(1995-1997 only)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>95-96</t>
+  </si>
+  <si>
+    <t>1990-1991</t>
+  </si>
+  <si>
+    <t>1992-1996</t>
+  </si>
+  <si>
+    <t>1998-2000</t>
+  </si>
+  <si>
+    <t>%avg</t>
+  </si>
+  <si>
+    <t>totaln</t>
+  </si>
+  <si>
+    <t>totaln_avg</t>
+  </si>
+  <si>
+    <t>total%avg</t>
+  </si>
+  <si>
+    <t>status2|1==OP</t>
+  </si>
+  <si>
+    <t>status2|1 %in% OP, SB</t>
+  </si>
+  <si>
+    <t>(1995-1996)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +424,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,18 +461,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,219 +779,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="49.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B31">
+    <sortState ref="A2:B29">
+      <sortCondition ref="A1:A60"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="R14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <sortState ref="C46:C61">
@@ -855,523 +1785,1824 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="125.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6">
+        <v>15604</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3/5</f>
+        <v>3120.8</v>
+      </c>
+      <c r="E3" s="18">
+        <f>D3/SUM($D$3:$D$8)</f>
+        <v>0.23100951929767424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44245</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4/5</f>
+        <v>8849</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ref="E4:E8" si="0">D4/SUM($D$3:$D$8)</f>
+        <v>0.65502538972863344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="1">C5/5</f>
+        <v>200.4</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4834115504759649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>5836</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1167.2</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>8.6399099886005304E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7">
+        <v>735</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0881312271455432E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8505633114720122E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12">
+        <v>49382</v>
+      </c>
+      <c r="D12">
+        <f>C12/5</f>
+        <v>9876.4</v>
+      </c>
+      <c r="E12" s="16">
+        <f>D12/SUM($D$12:$D$21)</f>
+        <v>0.73107613957688733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <f>C13/5</f>
+        <v>3.8</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:E21" si="2">D13/SUM($D$12:$D$21)</f>
+        <v>2.8128562334374586E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D21" si="3">C14/5</f>
+        <v>10.4</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>7.6983433757235717E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15">
+        <v>257</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>51.4</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>3.8047581683864572E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>415</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>6.1438701940870807E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>5.1815772721216342E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>15009</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>3001.8</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22220083793506748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>26.8</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9838038698979975E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1712</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>342.4</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="2"/>
+        <v>2.5345315113920679E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>532</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>106.4</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="2"/>
+        <v>7.8759974536248851E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>42060</v>
+      </c>
+      <c r="D26">
+        <f>C26/5</f>
+        <v>8412</v>
+      </c>
+      <c r="E26" s="19">
+        <f>D26/SUM($D$26:$D$31)</f>
+        <v>0.95061588880099468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <f>C27/5</f>
+        <v>7.4</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" ref="E27:E31" si="4">D27/SUM($D$26:$D$31)</f>
+        <v>8.3625268391908716E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28">
+        <v>237</v>
+      </c>
+      <c r="D28">
+        <f>C28/5</f>
+        <v>47.4</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="4"/>
+        <v>5.3565374618600985E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>389</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D31" si="5">C29/5</f>
+        <v>77.8</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="4"/>
+        <v>8.7919538930952661E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30">
+        <v>109</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>21.8</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="4"/>
+        <v>2.4635552039778512E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1413</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="4"/>
+        <v>3.1935811956153248E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>47714</v>
+      </c>
+      <c r="D36">
+        <f>C36/5</f>
+        <v>9542.7999999999993</v>
+      </c>
+      <c r="E36" s="16">
+        <f>D36/SUM($D$36:$D$41)</f>
+        <v>0.95273656676184604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D41" si="6">C37/5</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" ref="E37:E41" si="7">D37/SUM($D$36:$D$41)</f>
+        <v>7.9870609612427894E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38">
+        <v>244</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>48.8</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="7"/>
+        <v>4.8721071863581013E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>389</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>77.8</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="7"/>
+        <v>7.7674167848086123E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>22.4</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="7"/>
+        <v>2.2363770691479806E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>1582</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="7"/>
+        <v>3.1588826101715227E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/5</f>
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="16">
+        <f>D3/SUM($D$3:$D$8)</f>
+        <v>2.0693273946921752E-4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>58275</v>
+      </c>
+      <c r="D4" s="15">
+        <f>C4/6</f>
+        <v>9712.5</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E8" si="0">D4/SUM($D$3:$D$8)</f>
+        <v>0.71779794003384834</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>849</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D8" si="1">C5/6</f>
+        <v>141.5</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.045749379817653E-2</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>17589</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="1"/>
+        <v>2931.5</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21665118776928974</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1146</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4115769013793054E-2</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3310</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>551.66666666666663</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>4.0770676645423214E-2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>79332</v>
+      </c>
+      <c r="D13">
+        <f>C13/5</f>
+        <v>15866.4</v>
+      </c>
+      <c r="E13" s="16">
+        <f>D13/SUM($D$13:$D$27)</f>
+        <v>0.97719966002734571</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>357</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D27" si="2">C14/5</f>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E27" si="3">D14/SUM($D$13:$D$27)</f>
+        <v>4.3974723772218331E-3</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="3"/>
+        <v>6.1589248980697939E-5</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>192</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="3"/>
+        <v>2.3650271608588007E-3</v>
+      </c>
+      <c r="F16" s="14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="3"/>
+        <v>5.789389404185606E-4</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="3"/>
+        <v>2.3403914612665213E-4</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4781419755367504E-4</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="3"/>
+        <v>3.6953549388418761E-5</v>
+      </c>
+      <c r="F20" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="3"/>
+        <v>4.0648904327260637E-4</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3907098776837521E-5</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2317849796139587E-5</v>
+      </c>
+      <c r="F23" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3907098776837521E-4</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>259</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>51.8</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="3"/>
+        <v>3.190323097200153E-3</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>853</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>170.6</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0507125876107068E-2</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="3"/>
+        <v>4.927139918455835E-5</v>
+      </c>
+      <c r="F27" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>57641</v>
+      </c>
+      <c r="D31">
+        <f>C31/5</f>
+        <v>11528.2</v>
+      </c>
+      <c r="E31" s="16">
+        <f>D31/SUM($D$31:$D$44)</f>
+        <v>0.97004426044664349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C32">
+        <v>354</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D44" si="4">C32/5</f>
+        <v>70.8</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" ref="E32:E44" si="5">D32/SUM($D$31:$D$44)</f>
+        <v>5.9574897763416965E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>191</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="5"/>
+        <v>3.2143518284781475E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>9.4</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="5"/>
+        <v>7.909661567459316E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="5"/>
+        <v>3.02923208966527E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="5"/>
+        <v>8.4145335824035262E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="5"/>
+        <v>5.0487201494421157E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>5.4</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="5"/>
+        <v>4.543848134497905E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0097440298884231E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6829067164807056E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3">
+        <v>48</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>9.6</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="5"/>
+        <v>8.0779522391073852E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3">
+        <v>242</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>48.4</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" si="5"/>
+        <v>4.0726342538833071E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>834</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>166.8</v>
+      </c>
+      <c r="E43" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4035442015449083E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="5"/>
+        <v>6.7316268659228223E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>105355</v>
+      </c>
+      <c r="D4">
+        <f>C4/11</f>
+        <v>9577.7272727272721</v>
+      </c>
+      <c r="E4" s="16">
+        <f>D4/SUM($D$4:$D$18)</f>
+        <v>0.96212854559734051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>354</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D18" si="0">C5/11</f>
+        <v>32.18181818181818</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:E18" si="1">D5/SUM($D$4:$D$18)</f>
+        <v>3.232817665430768E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6">
+        <v>191</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>17.363636363636363</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.7442603788058663E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.2727272727272725</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>4.2921590473233358E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.2727272727272725</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>5.2967069094628401E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="1"/>
+        <v>4.5661266460886554E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1">
+        <v>247</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>22.454545454545453</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="1"/>
+        <v>2.2556665631677957E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>2.4657083888878742E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12">
+        <v>389</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>35.363636363636367</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>3.5524465306569744E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>5.4793519753063859E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>9.1322532921773104E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="1">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>4.3834815802451087E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C16">
+        <v>354</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>32.18181818181818</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>3.232817665430768E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2416</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>219.63636363636363</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>2.206352395390038E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>87</v>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="1"/>
+        <v>3.6529013168709242E-5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E4:E18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>